--- a/biology/Médecine/Otto_Van_Heurne/Otto_Van_Heurne.xlsx
+++ b/biology/Médecine/Otto_Van_Heurne/Otto_Van_Heurne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Van Heurne, dit Othon Heurnius, né à Utrecht le 8 septembre 1577 et mort à Leyde le 14 juillet 1652, est un médecin, philosophe et théologien néerlandais, fils de Johan Van Heurne.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à l'Université de Leyde et succède à son père comme professeur de médecine à Leyde. En 1617, il prend la suite de Pieter Pauw en tant que professeur d'anatomie. Parallèlement à son enseignement pratique de l'anatomie, il s'occupe d'une collection très variée de spécimens zoologiques et botaniques[1].
-Il enseigne aussi la philosophie à Leyde[2] et se spécialise comme historien de la philosophie en particulier sur la Grèce antique[3], basant ses idées sur le Corpus HermeticumCorpus Hermeticum[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à l'Université de Leyde et succède à son père comme professeur de médecine à Leyde. En 1617, il prend la suite de Pieter Pauw en tant que professeur d'anatomie. Parallèlement à son enseignement pratique de l'anatomie, il s'occupe d'une collection très variée de spécimens zoologiques et botaniques.
+Il enseigne aussi la philosophie à Leyde et se spécialise comme historien de la philosophie en particulier sur la Grèce antique, basant ses idées sur le Corpus HermeticumCorpus Hermeticum.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1600 : Antiquitates philosophiae barbaricae, Leyde
 1619 : Babylonica, Aegyptiaca, Indica, philosophiae primordia, Leyde</t>
